--- a/meta/6-4-2-1.xlsx
+++ b/meta/6-4-2-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="450" windowWidth="15000" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="6.4.1.2" sheetId="1" r:id="rId1"/>
@@ -102,25 +102,13 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 6. Обеспечение наличия и рационального использования водных ресурсов и санитарии для всех</t>
   </si>
   <si>
     <t xml:space="preserve">6.4 К 2030 году существенно повысить эффективность водопользования во всех секторах и обеспечить устойчивый забор и подачу пресной воды для решения проблемы нехватки воды и значительного сокращения числа людей, страдающих от нехватки воды </t>
   </si>
   <si>
-    <t>Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
   </si>
   <si>
     <t>6.4.2.1 Общий объем забора воды</t>
@@ -166,13 +154,25 @@
   </si>
   <si>
     <t>6.4.2.1</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление цифрового развития и статистики устойчивого развития)</t>
+  </si>
+  <si>
+    <t>Мамбеталиев Т.А.</t>
+  </si>
+  <si>
+    <t>(0312) 62 56 07</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +199,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -280,10 +286,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -309,8 +316,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,7 +538,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -542,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -550,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -558,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -566,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -580,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -588,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -596,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -604,15 +615,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
+      <c r="B10" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -626,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -634,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -642,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -664,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -678,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -686,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -694,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -708,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1712,8 +1723,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" display="https://sustainabledevelopment-kyrgyzstan.github.io/"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>